--- a/guaranies.xlsx
+++ b/guaranies.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ruth Rolón Aranda\Documents\Cambra\Analisis para la consultoria\ejemplo dash\finanzas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="101">
   <si>
     <t>Categoria</t>
   </si>
@@ -109,9 +117,6 @@
     <t>Interfisa</t>
   </si>
   <si>
-    <t xml:space="preserve">Apy </t>
-  </si>
-  <si>
     <t>Finlatina</t>
   </si>
   <si>
@@ -178,15 +183,9 @@
     <t>Fondo Mutuo Evolución Sudameris</t>
   </si>
   <si>
-    <t>Afpy</t>
-  </si>
-  <si>
     <t>Fondo Mutuo Crecimiento</t>
   </si>
   <si>
-    <t>AAfpy</t>
-  </si>
-  <si>
     <t>Puente</t>
   </si>
   <si>
@@ -199,9 +198,6 @@
     <t>Fondo Mutuo BNB PY Guaraníes</t>
   </si>
   <si>
-    <t>AA+py**</t>
-  </si>
-  <si>
     <t>Fondos Mutuos 100% Vista</t>
   </si>
   <si>
@@ -214,9 +210,6 @@
     <t>FAM Liquidez Guaraníes</t>
   </si>
   <si>
-    <t>AAf+py</t>
-  </si>
-  <si>
     <t>Fondo Mutuo en Guaranies</t>
   </si>
   <si>
@@ -247,9 +240,6 @@
     <t xml:space="preserve">Fondo Mutuo IAM Liquidez </t>
   </si>
   <si>
-    <t>AAAfpy</t>
-  </si>
-  <si>
     <t>Fondo de inversion</t>
   </si>
   <si>
@@ -257,9 +247,6 @@
   </si>
   <si>
     <t>Fondos de Inversión Ganadero Ferusa I</t>
-  </si>
-  <si>
-    <t>A+</t>
   </si>
   <si>
     <t>Bonos</t>
@@ -340,22 +327,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -363,7 +362,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -379,7 +378,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -393,53 +398,58 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -629,20 +639,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D132" sqref="D132"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -668,7 +686,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
@@ -679,7 +697,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E2" s="4">
         <v>7.25</v>
@@ -688,13 +706,13 @@
         <v>8.65</v>
       </c>
       <c r="G2" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -705,7 +723,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E3" s="4">
         <v>4.75</v>
@@ -714,13 +732,13 @@
         <v>8.5</v>
       </c>
       <c r="G3" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>15</v>
       </c>
@@ -731,22 +749,22 @@
         <v>10</v>
       </c>
       <c r="D4" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E4" s="4">
         <v>7.1</v>
       </c>
       <c r="F4" s="4">
-        <v>8.55</v>
+        <v>8.5500000000000007</v>
       </c>
       <c r="G4" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -757,22 +775,22 @@
         <v>13</v>
       </c>
       <c r="D5" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E5" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4">
         <v>8.5</v>
       </c>
       <c r="G5" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -783,22 +801,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E6" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="4">
         <v>8.5</v>
       </c>
       <c r="G6" s="5">
-        <v>1.0E7</v>
+        <v>10000000</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -809,7 +827,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E7" s="4">
         <v>7.31</v>
@@ -818,13 +836,13 @@
         <v>8.25</v>
       </c>
       <c r="G7" s="5">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -835,22 +853,22 @@
         <v>13</v>
       </c>
       <c r="D8" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E8" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -861,22 +879,22 @@
         <v>13</v>
       </c>
       <c r="D9" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E9" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F9" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G9" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>8</v>
       </c>
@@ -887,22 +905,22 @@
         <v>13</v>
       </c>
       <c r="D10" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E10" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G10" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -913,22 +931,22 @@
         <v>13</v>
       </c>
       <c r="D11" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E11" s="4">
         <v>4.5</v>
       </c>
       <c r="F11" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>8</v>
       </c>
@@ -939,22 +957,22 @@
         <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E12" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G12" s="5">
-        <v>10000.0</v>
+        <v>10000</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -965,22 +983,22 @@
         <v>13</v>
       </c>
       <c r="D13" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E13" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
@@ -991,22 +1009,22 @@
         <v>13</v>
       </c>
       <c r="D14" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E14" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F14" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G14" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
@@ -1016,23 +1034,23 @@
       <c r="C15" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>28</v>
+      <c r="D15" s="4">
+        <v>366</v>
       </c>
       <c r="E15" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G15" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>8</v>
       </c>
@@ -1043,7 +1061,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E16" s="4">
         <v>7.8</v>
@@ -1052,13 +1070,13 @@
         <v>8.09</v>
       </c>
       <c r="G16" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1069,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E17" s="4">
         <v>5.5</v>
@@ -1078,91 +1096,91 @@
         <v>8.02</v>
       </c>
       <c r="G17" s="5">
-        <v>2.5E7</v>
+        <v>25000000</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E18" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4">
         <v>7.99</v>
       </c>
       <c r="G18" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C19" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E19" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
         <v>7.9</v>
       </c>
       <c r="G19" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E20" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="4">
         <v>7.5</v>
       </c>
       <c r="G20" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -1173,7 +1191,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E21" s="4">
         <v>5.3</v>
@@ -1182,13 +1200,13 @@
         <v>7.3</v>
       </c>
       <c r="G21" s="5">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H21" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1217,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E22" s="4">
         <v>6.92</v>
@@ -1208,39 +1226,39 @@
         <v>7.27</v>
       </c>
       <c r="G22" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H22" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E23" s="4">
         <v>5.75</v>
       </c>
       <c r="F23" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G23" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>8</v>
       </c>
@@ -1251,33 +1269,33 @@
         <v>10</v>
       </c>
       <c r="D24" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E24" s="4">
         <v>5.5</v>
       </c>
       <c r="F24" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="G24" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D25" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E25" s="4">
         <v>5.46</v>
@@ -1286,24 +1304,24 @@
         <v>6.95</v>
       </c>
       <c r="G25" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D26" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E26" s="4">
         <v>6.8</v>
@@ -1312,24 +1330,24 @@
         <v>6.8</v>
       </c>
       <c r="G26" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D27" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E27" s="4">
         <v>3.5</v>
@@ -1338,13 +1356,13 @@
         <v>6.72</v>
       </c>
       <c r="G27" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1373,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E28" s="4">
         <v>4.75</v>
@@ -1364,24 +1382,24 @@
         <v>6.55</v>
       </c>
       <c r="G28" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E29" s="4">
         <v>6.05</v>
@@ -1390,13 +1408,13 @@
         <v>6.5</v>
       </c>
       <c r="G29" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -1407,22 +1425,22 @@
         <v>13</v>
       </c>
       <c r="D30" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E30" s="4">
         <v>3.25</v>
       </c>
       <c r="F30" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G30" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H30" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1451,7 @@
         <v>10</v>
       </c>
       <c r="D31" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E31" s="4">
         <v>0.01</v>
@@ -1448,7 +1466,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1477,7 @@
         <v>10</v>
       </c>
       <c r="D32" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E32" s="4">
         <v>6.3</v>
@@ -1474,18 +1492,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E33" s="4">
         <v>6.4</v>
@@ -1494,13 +1512,13 @@
         <v>6.4</v>
       </c>
       <c r="G33" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1529,7 @@
         <v>10</v>
       </c>
       <c r="D34" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E34" s="4">
         <v>0.5</v>
@@ -1520,13 +1538,13 @@
         <v>6.24</v>
       </c>
       <c r="G34" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>8</v>
       </c>
@@ -1537,7 +1555,7 @@
         <v>10</v>
       </c>
       <c r="D35" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E35" s="4">
         <v>5.9</v>
@@ -1546,13 +1564,13 @@
         <v>6.15</v>
       </c>
       <c r="G35" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -1563,22 +1581,22 @@
         <v>10</v>
       </c>
       <c r="D36" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E36" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F36" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G36" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H36" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>8</v>
       </c>
@@ -1589,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="D37" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E37" s="4">
         <v>5.74</v>
@@ -1598,13 +1616,13 @@
         <v>5.9</v>
       </c>
       <c r="G37" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H37" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1615,22 +1633,22 @@
         <v>10</v>
       </c>
       <c r="D38" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E38" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F38" s="4">
         <v>5.85</v>
       </c>
       <c r="G38" s="5">
-        <v>2.5E7</v>
+        <v>25000000</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
@@ -1641,22 +1659,22 @@
         <v>10</v>
       </c>
       <c r="D39" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E39" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F39" s="4">
         <v>5.82</v>
       </c>
       <c r="G39" s="5">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H39" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
         <v>8</v>
       </c>
@@ -1667,7 +1685,7 @@
         <v>10</v>
       </c>
       <c r="D40" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E40" s="4">
         <v>0.5</v>
@@ -1676,39 +1694,39 @@
         <v>5.81</v>
       </c>
       <c r="G40" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H40" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E41" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F41" s="4">
         <v>5.6</v>
       </c>
       <c r="G41" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H41" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -1719,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="D42" s="6">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E42" s="6">
         <v>5.3</v>
@@ -1734,7 +1752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -1745,22 +1763,22 @@
         <v>13</v>
       </c>
       <c r="D43" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E43" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F43" s="4">
         <v>6.5</v>
       </c>
       <c r="G43" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H43" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
         <v>8</v>
       </c>
@@ -1771,22 +1789,22 @@
         <v>10</v>
       </c>
       <c r="D44" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E44" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F44" s="4">
         <v>5.5</v>
       </c>
       <c r="G44" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
         <v>8</v>
       </c>
@@ -1797,22 +1815,22 @@
         <v>10</v>
       </c>
       <c r="D45" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E45" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F45" s="4">
         <v>5.5</v>
       </c>
       <c r="G45" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H45" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -1820,10 +1838,10 @@
         <v>26</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
         <v>0.01</v>
@@ -1832,24 +1850,24 @@
         <v>4.88</v>
       </c>
       <c r="G46" s="5">
-        <v>2000000.0</v>
+        <v>2000000</v>
       </c>
       <c r="H46" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E47" s="4">
         <v>3.67</v>
@@ -1858,13 +1876,13 @@
         <v>5.45</v>
       </c>
       <c r="G47" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H47" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
         <v>8</v>
       </c>
@@ -1875,22 +1893,22 @@
         <v>13</v>
       </c>
       <c r="D48" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E48" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F48" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="G48" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H48" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>8</v>
       </c>
@@ -1901,22 +1919,22 @@
         <v>13</v>
       </c>
       <c r="D49" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E49" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F49" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G49" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H49" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>8</v>
       </c>
@@ -1927,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="D50" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E50" s="4">
         <v>5.3</v>
@@ -1936,13 +1954,13 @@
         <v>5.43</v>
       </c>
       <c r="G50" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H50" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -1953,7 +1971,7 @@
         <v>10</v>
       </c>
       <c r="D51" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E51" s="4">
         <v>2.5</v>
@@ -1962,50 +1980,50 @@
         <v>5.34</v>
       </c>
       <c r="G51" s="5">
-        <v>2.5E7</v>
+        <v>25000000</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E52" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F52" s="4">
         <v>5.3</v>
       </c>
       <c r="G52" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H52" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C53" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="D53" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E53" s="4">
         <v>2.5</v>
@@ -2014,13 +2032,13 @@
         <v>5.3</v>
       </c>
       <c r="G53" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
         <v>8</v>
       </c>
@@ -2031,22 +2049,22 @@
         <v>10</v>
       </c>
       <c r="D54" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E54" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F54" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="G54" s="5">
-        <v>1.0E7</v>
+        <v>10000000</v>
       </c>
       <c r="H54" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
         <v>8</v>
       </c>
@@ -2057,7 +2075,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E55" s="4">
         <v>4.5</v>
@@ -2066,13 +2084,13 @@
         <v>4.75</v>
       </c>
       <c r="G55" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H55" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -2083,13 +2101,13 @@
         <v>10</v>
       </c>
       <c r="D56" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E56" s="4">
         <v>0.01</v>
       </c>
       <c r="F56" s="4">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>28</v>
@@ -2098,7 +2116,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>15</v>
       </c>
@@ -2109,22 +2127,22 @@
         <v>10</v>
       </c>
       <c r="D57" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E57" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F57" s="4">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="G57" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>8</v>
       </c>
@@ -2135,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="D58" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E58" s="4">
         <v>0.01</v>
@@ -2150,7 +2168,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>8</v>
       </c>
@@ -2161,7 +2179,7 @@
         <v>10</v>
       </c>
       <c r="D59" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E59" s="4">
         <v>3.5</v>
@@ -2176,7 +2194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>8</v>
       </c>
@@ -2187,7 +2205,7 @@
         <v>10</v>
       </c>
       <c r="D60" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E60" s="4">
         <v>3.5</v>
@@ -2202,7 +2220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>8</v>
       </c>
@@ -2213,22 +2231,22 @@
         <v>10</v>
       </c>
       <c r="D61" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E61" s="4">
         <v>3.74</v>
       </c>
       <c r="F61" s="4">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G61" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>8</v>
       </c>
@@ -2239,22 +2257,22 @@
         <v>10</v>
       </c>
       <c r="D62" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E62" s="4">
         <v>0.5</v>
       </c>
       <c r="F62" s="4">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G62" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>8</v>
       </c>
@@ -2265,22 +2283,22 @@
         <v>10</v>
       </c>
       <c r="D63" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E63" s="4">
         <v>2.5</v>
       </c>
       <c r="F63" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G63" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>8</v>
       </c>
@@ -2291,22 +2309,22 @@
         <v>10</v>
       </c>
       <c r="D64" s="4">
-        <v>160.0</v>
+        <v>160</v>
       </c>
       <c r="E64" s="4">
         <v>0.5</v>
       </c>
       <c r="F64" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G64" s="5">
-        <v>1.0E7</v>
+        <v>10000000</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>15</v>
       </c>
@@ -2317,22 +2335,22 @@
         <v>10</v>
       </c>
       <c r="D65" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E65" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F65" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G65" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>15</v>
       </c>
@@ -2343,22 +2361,22 @@
         <v>10</v>
       </c>
       <c r="D66" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E66" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F66" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G66" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>8</v>
       </c>
@@ -2369,7 +2387,7 @@
         <v>10</v>
       </c>
       <c r="D67" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E67" s="4">
         <v>0.9</v>
@@ -2378,24 +2396,24 @@
         <v>3.93</v>
       </c>
       <c r="G67" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D68" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E68" s="4">
         <v>1.65</v>
@@ -2404,13 +2422,13 @@
         <v>3.8</v>
       </c>
       <c r="G68" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
         <v>8</v>
       </c>
@@ -2418,10 +2436,10 @@
         <v>31</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E69" s="4">
         <v>0.15</v>
@@ -2430,39 +2448,39 @@
         <v>1.22</v>
       </c>
       <c r="G69" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D70" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E70" s="4">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="F70" s="4">
         <v>3.45</v>
       </c>
       <c r="G70" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
         <v>8</v>
       </c>
@@ -2470,10 +2488,10 @@
         <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E71" s="4">
         <v>0.05</v>
@@ -2482,13 +2500,13 @@
         <v>0.5</v>
       </c>
       <c r="G71" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H71" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2496,10 +2514,10 @@
         <v>27</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D72" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E72" s="4">
         <v>0.01</v>
@@ -2508,24 +2526,24 @@
         <v>0.5</v>
       </c>
       <c r="G72" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H72" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D73" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E73" s="4">
         <v>0.37</v>
@@ -2534,24 +2552,24 @@
         <v>0.37</v>
       </c>
       <c r="G73" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H73" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D74" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E74" s="4">
         <v>0.1</v>
@@ -2560,24 +2578,24 @@
         <v>0.35</v>
       </c>
       <c r="G74" s="5">
-        <v>3000000.0</v>
+        <v>3000000</v>
       </c>
       <c r="H74" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D75" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E75" s="4">
         <v>0.05</v>
@@ -2586,13 +2604,13 @@
         <v>0.35</v>
       </c>
       <c r="G75" s="5">
-        <v>2.0000001E7</v>
+        <v>20000001</v>
       </c>
       <c r="H75" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
         <v>15</v>
       </c>
@@ -2600,10 +2618,10 @@
         <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E76" s="4">
         <v>0.1</v>
@@ -2612,24 +2630,24 @@
         <v>0.3</v>
       </c>
       <c r="G76" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H76" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C77" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="D77" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E77" s="4">
         <v>0.25</v>
@@ -2638,13 +2656,13 @@
         <v>0.25</v>
       </c>
       <c r="G77" s="5">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H77" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
         <v>8</v>
       </c>
@@ -2652,10 +2670,10 @@
         <v>9</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D78" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E78" s="4">
         <v>0.01</v>
@@ -2664,13 +2682,13 @@
         <v>0.25</v>
       </c>
       <c r="G78" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H78" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
         <v>8</v>
       </c>
@@ -2678,25 +2696,25 @@
         <v>23</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D79" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E79" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F79" s="4">
         <v>0.22</v>
       </c>
       <c r="G79" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H79" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="4" t="s">
         <v>8</v>
       </c>
@@ -2704,10 +2722,10 @@
         <v>20</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D80" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E80" s="4">
         <v>0.05</v>
@@ -2716,13 +2734,13 @@
         <v>0.1</v>
       </c>
       <c r="G80" s="5">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
         <v>8</v>
       </c>
@@ -2730,36 +2748,36 @@
         <v>12</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D81" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E81" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F81" s="4">
         <v>0.1</v>
       </c>
       <c r="G81" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H81" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D82" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4">
         <v>0.05</v>
@@ -2768,24 +2786,24 @@
         <v>0.05</v>
       </c>
       <c r="G82" s="5">
-        <v>200000.0</v>
+        <v>200000</v>
       </c>
       <c r="H82" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D83" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E83" s="4">
         <v>0.02</v>
@@ -2794,13 +2812,13 @@
         <v>0.03</v>
       </c>
       <c r="G83" s="5">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>15</v>
       </c>
@@ -2808,10 +2826,10 @@
         <v>19</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D84" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E84" s="4">
         <v>0.01</v>
@@ -2820,13 +2838,13 @@
         <v>0.02</v>
       </c>
       <c r="G84" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H84" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>15</v>
       </c>
@@ -2837,7 +2855,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E85" s="4">
         <v>1.5</v>
@@ -2846,24 +2864,24 @@
         <v>3.25</v>
       </c>
       <c r="G85" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H85" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D86" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E86" s="4">
         <v>1.65</v>
@@ -2872,13 +2890,13 @@
         <v>3.15</v>
       </c>
       <c r="G86" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H86" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>8</v>
       </c>
@@ -2889,22 +2907,22 @@
         <v>10</v>
       </c>
       <c r="D87" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E87" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F87" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="G87" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H87" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
         <v>8</v>
       </c>
@@ -2912,25 +2930,25 @@
         <v>22</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D88" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E88" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F88" s="4">
         <v>0.01</v>
       </c>
       <c r="G88" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H88" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
         <v>8</v>
       </c>
@@ -2941,22 +2959,22 @@
         <v>13</v>
       </c>
       <c r="D89" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E89" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F89" s="4">
         <v>4.5</v>
       </c>
       <c r="G89" s="5">
-        <v>50000.0</v>
+        <v>50000</v>
       </c>
       <c r="H89" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
         <v>8</v>
       </c>
@@ -2967,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="D90" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E90" s="4">
         <v>1.05</v>
@@ -2976,65 +2994,65 @@
         <v>2.5</v>
       </c>
       <c r="G90" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D91" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E91" s="4">
-        <v>2.01</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="F91" s="4">
         <v>2.25</v>
       </c>
       <c r="G91" s="5">
-        <v>1.0E8</v>
+        <v>100000000</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D92" s="4">
-        <v>365.0</v>
+        <v>365</v>
       </c>
       <c r="E92" s="4">
         <v>1.26</v>
       </c>
       <c r="F92" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G92" s="5">
-        <v>1.0E8</v>
+        <v>100000000</v>
       </c>
       <c r="H92" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
         <v>8</v>
       </c>
@@ -3042,25 +3060,25 @@
         <v>25</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D93" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E93" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F93" s="4">
         <v>0.01</v>
       </c>
       <c r="G93" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H93" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
         <v>8</v>
       </c>
@@ -3071,22 +3089,22 @@
         <v>13</v>
       </c>
       <c r="D94" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E94" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="F94" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="G94" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="H94" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
         <v>8</v>
       </c>
@@ -3097,22 +3115,22 @@
         <v>10</v>
       </c>
       <c r="D95" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E95" s="4">
         <v>0.25</v>
       </c>
       <c r="F95" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G95" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H95" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="4" t="s">
         <v>15</v>
       </c>
@@ -3123,33 +3141,33 @@
         <v>10</v>
       </c>
       <c r="D96" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E96" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F96" s="4">
         <v>1.5</v>
       </c>
       <c r="G96" s="5">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D97" s="4">
-        <v>180.0</v>
+        <v>180</v>
       </c>
       <c r="E97" s="4">
         <v>0.76</v>
@@ -3158,24 +3176,24 @@
         <v>1.25</v>
       </c>
       <c r="G97" s="5">
-        <v>1.0E8</v>
+        <v>100000000</v>
       </c>
       <c r="H97" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="4" t="s">
         <v>8</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D98" s="4">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="E98" s="4">
         <v>0.25</v>
@@ -3184,544 +3202,544 @@
         <v>0.75</v>
       </c>
       <c r="G98" s="5">
-        <v>1.0E8</v>
+        <v>100000000</v>
       </c>
       <c r="H98" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B99" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="C99" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="D99" s="7">
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+      <c r="F99" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D99" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="E99" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F99" s="7" t="s">
+      <c r="G99" s="8">
+        <v>300000</v>
+      </c>
+      <c r="H99" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B100" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G99" s="8">
-        <v>300000.0</v>
-      </c>
-      <c r="H99" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="C100" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C100" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="D100" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E100" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F100" s="7">
         <v>9.35</v>
       </c>
       <c r="G100" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B101" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C101" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="D101" s="4">
+        <v>15</v>
+      </c>
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+      <c r="F101" s="7">
+        <v>9</v>
+      </c>
+      <c r="G101" s="8">
+        <v>100000</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D101" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="E101" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F101" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="G101" s="8">
-        <v>100000.0</v>
-      </c>
-      <c r="H101" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C102" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="D102" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E102" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F102" s="7">
         <v>8.65</v>
       </c>
       <c r="G102" s="8">
-        <v>300000.0</v>
+        <v>300000</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B103" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C103" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C103" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="D103" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E103" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F103" s="7">
         <v>8.65</v>
       </c>
       <c r="G103" s="8">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H103" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D104" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E104" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F104" s="7">
         <v>8.57</v>
       </c>
       <c r="G104" s="8">
-        <v>1.0E7</v>
+        <v>10000000</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D105" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E105" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F105" s="7">
         <v>7.03</v>
       </c>
       <c r="G105" s="8">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H105" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D106" s="4">
+        <v>2</v>
+      </c>
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+      <c r="F106" s="7">
+        <v>7</v>
+      </c>
+      <c r="G106" s="8">
+        <v>5000000</v>
+      </c>
+      <c r="H106" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" s="7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D106" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="E106" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F106" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="G106" s="8">
-        <v>5000000.0</v>
-      </c>
-      <c r="H106" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B107" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="C107" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D107" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E107" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F107" s="7">
         <v>6.55</v>
       </c>
       <c r="G107" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D108" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E108" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F108" s="7">
         <v>6.5</v>
       </c>
       <c r="G108" s="8">
-        <v>100000.0</v>
+        <v>100000</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D109" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E109" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F109" s="7">
         <v>6.3</v>
       </c>
       <c r="G109" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D110" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E110" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F110" s="7">
         <v>6.25</v>
       </c>
       <c r="G110" s="8">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D111" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E111" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F111" s="7">
         <v>6.01</v>
       </c>
       <c r="G111" s="8">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D112" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="E112" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F112" s="7">
         <v>5.78</v>
       </c>
       <c r="G112" s="8">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D113" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E113" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F113" s="7">
         <v>5.78</v>
       </c>
       <c r="G113" s="8">
-        <v>2000000.0</v>
+        <v>2000000</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D114" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E114" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F114" s="7">
         <v>5.34</v>
       </c>
       <c r="G114" s="8">
-        <v>5.0E7</v>
+        <v>50000000</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D115" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E115" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F115" s="7">
         <v>5.32</v>
       </c>
       <c r="G115" s="8">
-        <v>5000000.0</v>
+        <v>5000000</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B116" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C116" s="7" t="s">
-        <v>77</v>
-      </c>
       <c r="D116" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E116" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F116" s="7">
         <v>4.82</v>
       </c>
       <c r="G116" s="8">
-        <v>500000.0</v>
+        <v>500000</v>
       </c>
       <c r="H116" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D117" s="4">
+        <v>999</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+      <c r="F117" s="4">
+        <v>15</v>
+      </c>
+      <c r="G117" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" s="4">
+        <v>999</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+      <c r="F118" s="4">
+        <v>13</v>
+      </c>
+      <c r="G118" s="5">
+        <v>10000000</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D117" s="4">
-        <v>999.0</v>
-      </c>
-      <c r="E117" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F117" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="G117" s="5">
-        <v>1000000.0</v>
-      </c>
-      <c r="H117" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" s="4">
-        <v>999.0</v>
-      </c>
-      <c r="E118" s="4">
-        <v>0.0</v>
-      </c>
-      <c r="F118" s="4">
-        <v>13.0</v>
-      </c>
-      <c r="G118" s="5">
-        <v>1.0E7</v>
-      </c>
-      <c r="H118" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D119" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="E119" s="4">
         <v>7.5</v>
@@ -3730,24 +3748,24 @@
         <v>7.5</v>
       </c>
       <c r="G119" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H119" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E120" s="4">
         <v>8.1</v>
@@ -3756,24 +3774,24 @@
         <v>8.1</v>
       </c>
       <c r="G120" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H120" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E121" s="4">
         <v>8.1</v>
@@ -3782,24 +3800,24 @@
         <v>8.1</v>
       </c>
       <c r="G121" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H121" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E122" s="4">
         <v>8.15</v>
@@ -3808,102 +3826,102 @@
         <v>8.15</v>
       </c>
       <c r="G122" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H122" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E123" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F123" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G123" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H123" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B124" s="4" t="s">
-        <v>90</v>
-      </c>
       <c r="C124" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E124" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F124" s="4">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G124" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H124" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D125" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" s="4">
+        <v>9</v>
+      </c>
+      <c r="F125" s="4">
+        <v>9</v>
+      </c>
+      <c r="G125" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E125" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="F125" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="G125" s="5">
-        <v>1000000.0</v>
-      </c>
-      <c r="H125" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>93</v>
-      </c>
       <c r="C126" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E126" s="4">
         <v>9.4</v>
@@ -3912,102 +3930,102 @@
         <v>9.4</v>
       </c>
       <c r="G126" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H126" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E127" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="F127" s="4">
-        <v>9.2</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G127" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H127" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D128" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E128" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F128" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G128" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H128" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D129" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E129" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F129" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="G129" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H129" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C130" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D130" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E130" s="4">
         <v>8.5</v>
@@ -4016,180 +4034,181 @@
         <v>8.5</v>
       </c>
       <c r="G130" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H130" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D131" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E131" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F131" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G131" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H131" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E132" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F132" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G132" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H132" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E133" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="F133" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="G133" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H133" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E134" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F134" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G134" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H134" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C135" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D135" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E135" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F135" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G135" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H135" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="136">
+      <c r="L135" s="9"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E136" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F136" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="G136" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H136" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D137" s="4">
-        <v>366.0</v>
+        <v>366</v>
       </c>
       <c r="E137" s="4">
         <v>11.5</v>
@@ -4198,50 +4217,50 @@
         <v>11.5</v>
       </c>
       <c r="G137" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C138" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E138" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F138" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G138" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E139" s="4">
         <v>10.4</v>
@@ -4250,50 +4269,50 @@
         <v>10.4</v>
       </c>
       <c r="G139" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E140" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="F140" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="G140" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E141" s="4">
         <v>11.5</v>
@@ -4302,13 +4321,13 @@
         <v>11.5</v>
       </c>
       <c r="G141" s="5">
-        <v>1000000.0</v>
+        <v>1000000</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>